--- a/biology/Médecine/Timothy_Richards_Lewis/Timothy_Richards_Lewis.xlsx
+++ b/biology/Médecine/Timothy_Richards_Lewis/Timothy_Richards_Lewis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Timothy Richards Lewis est un médecin britannique, né le 31 octobre 1841 à Llanboidy dans le Carmarthenshire au Pays de Galles et mort le 7 mai 1886 à Woolston dans le Southampton.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de William et de Britania née Richards. Il quitte l’école à 15 ans pour entrer en apprentissage comme pharmacien à Narberth. En 1861, il part à Londres pour travailler au German Hospital et fait des études à l’University College de 1863 à 1866. Il obtient les diplômes de Bachelor of medicine et de Master of chirurgie en 1867. En 1868, il travaille comme chirurgien assistant pour l’armée, atteint le grade de sergent en 1873 et de sergent-major en 1880.
 Lewis travaille avec David Douglas Cunningham (1843-1914) sur le choléra en Inde de 1869 à 1883. Il se marie avec Emily Francis Brown le 8 octobre 1879, union dont naîtra deux enfants.
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ressource relative à la recherche : Biodiversity Heritage Library  
